--- a/data/factors/factor15.xlsx
+++ b/data/factors/factor15.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mseun\OneDrive\바탕 화면\띵&amp;유 인벤토리\3 ~ [최종 결과 모음]\팩터 조사실\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mseun\OneDrive\바탕 화면\띵&amp;유 인벤토리\3 ~ [최종 결과 모음]\작업중 - 0808\data\factors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6255813F-96B3-47EB-A5D8-4A621D37507D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6AA79A-F44E-4729-BF76-A3A488738699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{59C31113-2681-464F-94E4-2AA3E28ECA6E}"/>
   </bookViews>
@@ -722,7 +722,7 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
